--- a/result/with_base/134/arousal/s16_5.xlsx
+++ b/result/with_base/134/arousal/s16_5.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.91796875</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.824999988079071</v>
+        <v>0.7555803656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41698.806640625</v>
+        <v>11286.3798828125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.798068182034926</v>
+        <v>0.7560399174690247</v>
       </c>
       <c r="E2" t="n">
-        <v>41699.34872159091</v>
+        <v>11287.22776884191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8309151828289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40918.650390625</v>
+        <v>10984.3837890625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8727272694761102</v>
+        <v>0.8231355057043188</v>
       </c>
       <c r="E3" t="n">
-        <v>40919.48082386364</v>
+        <v>10983.98184742647</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40147.83203125</v>
+        <v>10686.73779296875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9080681746656244</v>
+        <v>0.8672531527631423</v>
       </c>
       <c r="E4" t="n">
-        <v>40148.20490056818</v>
+        <v>10686.13120404412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8510044515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39387.671875</v>
+        <v>10394.81396484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9388636404817755</v>
+        <v>0.8933167001780342</v>
       </c>
       <c r="E5" t="n">
-        <v>39386.63529829546</v>
+        <v>10393.92457490809</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9375</v>
+        <v>0.86328125</v>
       </c>
       <c r="C6" t="n">
-        <v>38636.7421875</v>
+        <v>10109.06884765625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9479545409029181</v>
+        <v>0.8999474784907173</v>
       </c>
       <c r="E6" t="n">
-        <v>38635.99289772727</v>
+        <v>10107.95599724265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8856026828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37897.96484375</v>
+        <v>9829.09814453125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9511363506317139</v>
+        <v>0.9155724784907173</v>
       </c>
       <c r="E7" t="n">
-        <v>37896.97620738636</v>
+        <v>9828.256146599264</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8549107015132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37170.87890625</v>
+        <v>9556.0595703125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.960340911691839</v>
+        <v>0.9173450645278481</v>
       </c>
       <c r="E8" t="n">
-        <v>37169.97407670454</v>
+        <v>9554.991900275736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.828125</v>
       </c>
       <c r="C9" t="n">
-        <v>36455.708984375</v>
+        <v>9290.1689453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9728409051895142</v>
+        <v>0.8853072489009184</v>
       </c>
       <c r="E9" t="n">
-        <v>36454.70099431818</v>
+        <v>9288.810087316177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8755580484867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35753.009765625</v>
+        <v>9029.052734375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9763636480678212</v>
+        <v>0.937237395959742</v>
       </c>
       <c r="E10" t="n">
-        <v>35751.73330965909</v>
+        <v>9027.873161764706</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35062.986328125</v>
+        <v>8774.74658203125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.975909103046764</v>
+        <v>0.9620535724303302</v>
       </c>
       <c r="E11" t="n">
-        <v>35061.24041193182</v>
+        <v>8773.800436580883</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C12" t="n">
-        <v>34384.708984375</v>
+        <v>8527.060546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9796591021797874</v>
+        <v>0.9618566176470589</v>
       </c>
       <c r="E12" t="n">
-        <v>34382.94673295454</v>
+        <v>8525.959616268383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8683035671710968</v>
       </c>
       <c r="C13" t="n">
-        <v>33718.38671875</v>
+        <v>8285.888671875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9848863753405485</v>
+        <v>0.9482011549613055</v>
       </c>
       <c r="E13" t="n">
-        <v>33716.80539772727</v>
+        <v>8284.627585018383</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.90625</v>
       </c>
       <c r="C14" t="n">
-        <v>33064.23828125</v>
+        <v>8049.754150390625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9586397058823529</v>
       </c>
       <c r="E14" t="n">
-        <v>33062.54651988636</v>
+        <v>8048.922018612132</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.8934151828289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32421.822265625</v>
+        <v>7820.048095703125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9814772822640159</v>
+        <v>0.9703256312538596</v>
       </c>
       <c r="E15" t="n">
-        <v>32420.12056107954</v>
+        <v>7819.26171875</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31790.96484375</v>
+        <v>7596.15869140625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9711790961377761</v>
       </c>
       <c r="E16" t="n">
-        <v>31789.15163352273</v>
+        <v>7595.486500459559</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8934151828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31171.6142578125</v>
+        <v>7378.212158203125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9744616606656242</v>
       </c>
       <c r="E17" t="n">
-        <v>31169.89328835227</v>
+        <v>7377.458323759191</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30563.30859375</v>
+        <v>7166.089111328125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9698004196671879</v>
       </c>
       <c r="E18" t="n">
-        <v>30561.86985085227</v>
+        <v>7165.138355928309</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C19" t="n">
-        <v>29966.3212890625</v>
+        <v>6958.88330078125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9777442216873169</v>
       </c>
       <c r="E19" t="n">
-        <v>29964.96875</v>
+        <v>6958.22176585478</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29380.6484375</v>
+        <v>6757.562744140625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E20" t="n">
-        <v>29379.0625</v>
+        <v>6756.72501148897</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28804.7607421875</v>
+        <v>6561.28662109375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E21" t="n">
-        <v>28803.82208806818</v>
+        <v>6560.618336397059</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C22" t="n">
-        <v>28240.29296875</v>
+        <v>6370.263916015625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.980895484195036</v>
       </c>
       <c r="E22" t="n">
-        <v>28239.22620738636</v>
+        <v>6369.625229779412</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8939732015132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27686.33984375</v>
+        <v>6184.314697265625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9757746843730702</v>
       </c>
       <c r="E23" t="n">
-        <v>27685.00941051136</v>
+        <v>6183.697696461397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27142.416015625</v>
+        <v>6003.26318359375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.961200104040258</v>
       </c>
       <c r="E24" t="n">
-        <v>27140.974609375</v>
+        <v>6002.734920726103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26608.3876953125</v>
+        <v>5827.14013671875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E25" t="n">
-        <v>26607.03071732954</v>
+        <v>5826.45263671875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C26" t="n">
-        <v>26084.515625</v>
+        <v>5655.50927734375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E26" t="n">
-        <v>26083.09303977273</v>
+        <v>5654.920726102941</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25570.255859375</v>
+        <v>5488.45947265625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E27" t="n">
-        <v>25568.85262784091</v>
+        <v>5487.974638097427</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>25065.5693359375</v>
+        <v>5326.205322265625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E28" t="n">
-        <v>25064.19691051136</v>
+        <v>5325.56502757353</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24570.322265625</v>
+        <v>5167.90869140625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E29" t="n">
-        <v>24568.96590909091</v>
+        <v>5167.516055836397</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24084.3779296875</v>
+        <v>5014.265380859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E30" t="n">
-        <v>24082.95010653409</v>
+        <v>5013.737161075368</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23607.69921875</v>
+        <v>4864.505126953125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9874606097445768</v>
       </c>
       <c r="E31" t="n">
-        <v>23606.01669034091</v>
+        <v>4864.069709329044</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C32" t="n">
-        <v>23139.1171875</v>
+        <v>4718.90771484375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E32" t="n">
-        <v>23137.91530539773</v>
+        <v>4718.477711397059</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C33" t="n">
-        <v>22679.4423828125</v>
+        <v>4577.276123046875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E33" t="n">
-        <v>22678.55237926136</v>
+        <v>4576.836598115809</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C34" t="n">
-        <v>22228.5615234375</v>
+        <v>4439.330810546875</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E34" t="n">
-        <v>22227.80078125</v>
+        <v>4439.05118336397</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21786.513671875</v>
+        <v>4305.31103515625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E35" t="n">
-        <v>21785.48135653409</v>
+        <v>4304.999396829044</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21352.3916015625</v>
+        <v>4175.0126953125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E36" t="n">
-        <v>21351.44122869318</v>
+        <v>4174.628733915441</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C37" t="n">
-        <v>20926.4013671875</v>
+        <v>4048.324340820312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9571297273916357</v>
       </c>
       <c r="E37" t="n">
-        <v>20925.54847301136</v>
+        <v>4047.980282054228</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C38" t="n">
-        <v>20508.408203125</v>
+        <v>3925.112670898438</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9727547273916357</v>
       </c>
       <c r="E38" t="n">
-        <v>20507.61576704546</v>
+        <v>3924.662080652573</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9375</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20098.7646484375</v>
+        <v>3805.00341796875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E39" t="n">
-        <v>20097.61878551136</v>
+        <v>3804.740564682904</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19696.00390625</v>
+        <v>3688.63671875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9827993687461404</v>
       </c>
       <c r="E40" t="n">
-        <v>19695.27965198864</v>
+        <v>3688.240263097427</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.92578125</v>
       </c>
       <c r="C41" t="n">
-        <v>19301.2109375</v>
+        <v>3575.232788085938</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E41" t="n">
-        <v>19300.52840909091</v>
+        <v>3574.933048023897</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.91015625</v>
       </c>
       <c r="C42" t="n">
-        <v>18913.7509765625</v>
+        <v>3465.103881835938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9840467431965996</v>
       </c>
       <c r="E42" t="n">
-        <v>18913.16512784091</v>
+        <v>3464.797664866728</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18533.6748046875</v>
+        <v>3357.921264648438</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E43" t="n">
-        <v>18533.09499289773</v>
+        <v>3357.710190716912</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.93359375</v>
       </c>
       <c r="C44" t="n">
-        <v>18160.9296875</v>
+        <v>3253.862670898438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E44" t="n">
-        <v>18160.16619318182</v>
+        <v>3253.643396714154</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9140625</v>
       </c>
       <c r="C45" t="n">
-        <v>17795.021484375</v>
+        <v>3152.747436523438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E45" t="n">
-        <v>17794.27237215909</v>
+        <v>3152.510541130515</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17435.7001953125</v>
+        <v>3054.52099609375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E46" t="n">
-        <v>17435.29208096591</v>
+        <v>3054.256290211397</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17083.6591796875</v>
+        <v>2958.8115234375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E47" t="n">
-        <v>17083.07954545454</v>
+        <v>2958.668658088235</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16738.3505859375</v>
+        <v>2866.080810546875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E48" t="n">
-        <v>16737.52059659091</v>
+        <v>2865.83935546875</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.875</v>
       </c>
       <c r="C49" t="n">
-        <v>16398.7431640625</v>
+        <v>2776.107055664062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9195772058823529</v>
       </c>
       <c r="E49" t="n">
-        <v>16398.47247869318</v>
+        <v>2775.863022748162</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.8671875</v>
       </c>
       <c r="C50" t="n">
-        <v>16066.3193359375</v>
+        <v>2688.486572265625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9662552510990816</v>
       </c>
       <c r="E50" t="n">
-        <v>16065.84499289773</v>
+        <v>2688.141702090993</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.91796875</v>
       </c>
       <c r="C51" t="n">
-        <v>15739.8173828125</v>
+        <v>2603.353149414062</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E51" t="n">
-        <v>15739.49493963068</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15419.72265625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15419.31303267045</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15105.56494140625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15105.20907315341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14797.62109375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14797.087890625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14495.40966796875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14494.79847301136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14198.708984375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14198.23872514205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13907.61181640625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13907.33416193182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13622.4228515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13621.94992897727</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13342.42919921875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13342.01509232955</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13067.6669921875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13067.42231889205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12798.416015625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12798.05877130682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12534.14208984375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12533.81241122159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12275.1845703125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12274.60733309659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12020.86181640625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12020.38361150568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11771.48681640625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11771.01189630682</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11526.8154296875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9984090924263</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11526.43048650568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11286.90283203125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11286.53657670455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11051.57861328125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11051.25994318182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10820.810546875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10820.51953125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10594.5419921875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10594.23215553977</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10372.49755859375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10372.26890980114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10154.96142578125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10154.60076349432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9941.556640625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9941.142134232954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9732.19921875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9731.806374289772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9526.75390625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9526.520951704546</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9325.5517578125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9325.223899147728</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9128.0263671875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9127.82901278409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8934.42333984375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8934.267134232954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8744.62353515625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8744.48233309659</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8558.58349609375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8558.39444247159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8376.08447265625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8375.942560369318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.007874015748031496</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6991150442477876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.007874015748031496</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7345132743362832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.007874015748031496</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7522123893805309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.007874015748031496</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9734513274336283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03937007874015748</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9734513274336283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03937007874015748</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9823008849557522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07874015748031496</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9823008849557522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07874015748031496</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9911504424778761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2204724409448819</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9911504424778761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2204724409448819</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9920911434743223</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5826771653543307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6299212598425197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6377952755905512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6535433070866141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6850393700787402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7007874015748031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7795275590551181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7795275590551181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9212598425196851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.01769911504424779</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9212598425196851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.01769911504424779</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9606299212598425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9606299212598425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9921259842519685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.3805309734513274</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9921259842519685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.3805309734513274</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.994216430910738</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2603.034825942096</v>
       </c>
     </row>
   </sheetData>
